--- a/src/resources/CBOE.xlsx
+++ b/src/resources/CBOE.xlsx
@@ -1381,7 +1381,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -1389,16 +1389,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill>
+        <fgColor rgb="E6C8C8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6C8C8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1406,12 +1421,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1425,25 +1453,25 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="1">
         <v>6</v>
       </c>
     </row>

--- a/src/resources/CBOE.xlsx
+++ b/src/resources/CBOE.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="451">
   <si>
     <t>Date</t>
   </si>
@@ -35,6 +35,24 @@
     <t>Volume</t>
   </si>
   <si>
+    <t>Feb 08, 2021</t>
+  </si>
+  <si>
+    <t>21.89</t>
+  </si>
+  <si>
+    <t>22.07</t>
+  </si>
+  <si>
+    <t>21.23</t>
+  </si>
+  <si>
+    <t>21.24</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Feb 05, 2021</t>
   </si>
   <si>
@@ -50,13 +68,7 @@
     <t>20.87</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Feb 04,</t>
-  </si>
-  <si>
-    <t>2021</t>
+    <t>Feb 04, 2021</t>
   </si>
   <si>
     <t>23.44</t>
@@ -68,7 +80,7 @@
     <t>21.77</t>
   </si>
   <si>
-    <t xml:space="preserve"> Feb 03,</t>
+    <t>Feb 03, 2021</t>
   </si>
   <si>
     <t>24.59</t>
@@ -80,7 +92,7 @@
     <t>22.91</t>
   </si>
   <si>
-    <t xml:space="preserve"> Feb 02,</t>
+    <t>Feb 02, 2021</t>
   </si>
   <si>
     <t>28.01</t>
@@ -95,7 +107,7 @@
     <t>25.56</t>
   </si>
   <si>
-    <t xml:space="preserve"> Feb 01,</t>
+    <t>Feb 01, 2021</t>
   </si>
   <si>
     <t>31.45</t>
@@ -110,7 +122,7 @@
     <t>30.24</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 29,</t>
+    <t>Jan 29, 2021</t>
   </si>
   <si>
     <t>35.16</t>
@@ -125,7 +137,7 @@
     <t>33.09</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 28,</t>
+    <t>Jan 28, 2021</t>
   </si>
   <si>
     <t>33.25</t>
@@ -140,7 +152,7 @@
     <t>30.21</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 27,</t>
+    <t>Jan 27, 2021</t>
   </si>
   <si>
     <t>23.82</t>
@@ -152,7 +164,7 @@
     <t>23.71</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 26,</t>
+    <t>Jan 26, 2021</t>
   </si>
   <si>
     <t>23.91</t>
@@ -167,7 +179,7 @@
     <t>23.02</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 25,</t>
+    <t>Jan 25, 2021</t>
   </si>
   <si>
     <t>22.31</t>
@@ -182,7 +194,7 @@
     <t>23.19</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 22,</t>
+    <t>Jan 22, 2021</t>
   </si>
   <si>
     <t>22.24</t>
@@ -197,7 +209,7 @@
     <t>21.91</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 21,</t>
+    <t>Jan 21, 2021</t>
   </si>
   <si>
     <t>21.34</t>
@@ -212,7 +224,7 @@
     <t>21.32</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 20,</t>
+    <t>Jan 20, 2021</t>
   </si>
   <si>
     <t>22.82</t>
@@ -227,7 +239,7 @@
     <t>21.58</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 19,</t>
+    <t>Jan 19, 2021</t>
   </si>
   <si>
     <t>23.03</t>
@@ -242,7 +254,7 @@
     <t>23.24</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 15,</t>
+    <t>Jan 15, 2021</t>
   </si>
   <si>
     <t>23.52</t>
@@ -257,7 +269,7 @@
     <t>24.34</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 14,</t>
+    <t>Jan 14, 2021</t>
   </si>
   <si>
     <t>23.47</t>
@@ -269,7 +281,7 @@
     <t>23.25</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 13,</t>
+    <t>Jan 13, 2021</t>
   </si>
   <si>
     <t>23.07</t>
@@ -284,7 +296,7 @@
     <t>22.21</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 12,</t>
+    <t>Jan 12, 2021</t>
   </si>
   <si>
     <t>23.49</t>
@@ -299,7 +311,7 @@
     <t>23.33</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 11,</t>
+    <t>Jan 11, 2021</t>
   </si>
   <si>
     <t>23.31</t>
@@ -314,7 +326,7 @@
     <t>24.08</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 08,</t>
+    <t>Jan 08, 2021</t>
   </si>
   <si>
     <t>22.43</t>
@@ -329,7 +341,7 @@
     <t>21.56</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 07,</t>
+    <t>Jan 07, 2021</t>
   </si>
   <si>
     <t>23.67</t>
@@ -341,7 +353,7 @@
     <t>22.37</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 06,</t>
+    <t>Jan 06, 2021</t>
   </si>
   <si>
     <t>25.48</t>
@@ -356,7 +368,7 @@
     <t>25.07</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 05,</t>
+    <t>Jan 05, 2021</t>
   </si>
   <si>
     <t>26.94</t>
@@ -371,7 +383,7 @@
     <t>25.34</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jan 04,</t>
+    <t>Jan 04, 2021</t>
   </si>
   <si>
     <t>23.04</t>
@@ -386,22 +398,16 @@
     <t>26.97</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 31,</t>
-  </si>
-  <si>
-    <t>2020</t>
+    <t>Dec 31, 2020</t>
   </si>
   <si>
     <t>22.99</t>
   </si>
   <si>
-    <t>21.24</t>
-  </si>
-  <si>
     <t>22.75</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 30,</t>
+    <t>Dec 30, 2020</t>
   </si>
   <si>
     <t>22.58</t>
@@ -416,7 +422,7 @@
     <t>22.77</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 29,</t>
+    <t>Dec 29, 2020</t>
   </si>
   <si>
     <t>21.61</t>
@@ -428,7 +434,7 @@
     <t>20.99</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 28,</t>
+    <t>Dec 28, 2020</t>
   </si>
   <si>
     <t>22.11</t>
@@ -443,7 +449,7 @@
     <t>21.70</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 24,</t>
+    <t>Dec 24, 2020</t>
   </si>
   <si>
     <t>22.47</t>
@@ -455,7 +461,7 @@
     <t>21.53</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 23,</t>
+    <t>Dec 23, 2020</t>
   </si>
   <si>
     <t>23.68</t>
@@ -464,7 +470,7 @@
     <t>22.13</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 22,</t>
+    <t>Dec 22, 2020</t>
   </si>
   <si>
     <t>25.24</t>
@@ -476,7 +482,7 @@
     <t>24.23</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 21,</t>
+    <t>Dec 21, 2020</t>
   </si>
   <si>
     <t>24.25</t>
@@ -488,7 +494,7 @@
     <t>25.16</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 18,</t>
+    <t>Dec 18, 2020</t>
   </si>
   <si>
     <t>22.15</t>
@@ -500,7 +506,7 @@
     <t>21.57</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 17,</t>
+    <t>Dec 17, 2020</t>
   </si>
   <si>
     <t>21.98</t>
@@ -515,7 +521,7 @@
     <t>21.93</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 16,</t>
+    <t>Dec 16, 2020</t>
   </si>
   <si>
     <t>22.51</t>
@@ -527,7 +533,7 @@
     <t>22.50</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 15,</t>
+    <t>Dec 15, 2020</t>
   </si>
   <si>
     <t>24.00</t>
@@ -542,7 +548,7 @@
     <t>22.89</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 14,</t>
+    <t>Dec 14, 2020</t>
   </si>
   <si>
     <t>22.67</t>
@@ -557,7 +563,7 @@
     <t>24.72</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 11,</t>
+    <t>Dec 11, 2020</t>
   </si>
   <si>
     <t>22.49</t>
@@ -569,7 +575,7 @@
     <t>22.48</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 10,</t>
+    <t>Dec 10, 2020</t>
   </si>
   <si>
     <t>23.46</t>
@@ -578,7 +584,7 @@
     <t>22.52</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 09,</t>
+    <t>Dec 09, 2020</t>
   </si>
   <si>
     <t>20.66</t>
@@ -590,7 +596,7 @@
     <t>20.10</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 08,</t>
+    <t>Dec 08, 2020</t>
   </si>
   <si>
     <t>21.65</t>
@@ -602,7 +608,7 @@
     <t>20.68</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 07,</t>
+    <t>Dec 07, 2020</t>
   </si>
   <si>
     <t>22.04</t>
@@ -617,7 +623,7 @@
     <t>21.30</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 04,</t>
+    <t>Dec 04, 2020</t>
   </si>
   <si>
     <t>21.05</t>
@@ -629,7 +635,7 @@
     <t>20.79</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 03,</t>
+    <t>Dec 03, 2020</t>
   </si>
   <si>
     <t>21.88</t>
@@ -641,7 +647,7 @@
     <t>21.28</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 02,</t>
+    <t>Dec 02, 2020</t>
   </si>
   <si>
     <t>21.00</t>
@@ -653,7 +659,7 @@
     <t>20.04</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dec 01,</t>
+    <t>Dec 01, 2020</t>
   </si>
   <si>
     <t>20.21</t>
@@ -668,7 +674,7 @@
     <t>20.77</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 30,</t>
+    <t>Nov 30, 2020</t>
   </si>
   <si>
     <t>22.64</t>
@@ -680,7 +686,7 @@
     <t>20.57</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 27,</t>
+    <t>Nov 27, 2020</t>
   </si>
   <si>
     <t>21.60</t>
@@ -692,13 +698,13 @@
     <t>20.84</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 25,</t>
+    <t>Nov 25, 2020</t>
   </si>
   <si>
     <t>21.13</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 24,</t>
+    <t>Nov 24, 2020</t>
   </si>
   <si>
     <t>20.80</t>
@@ -707,7 +713,7 @@
     <t>21.64</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 23,</t>
+    <t>Nov 23, 2020</t>
   </si>
   <si>
     <t>23.66</t>
@@ -722,7 +728,7 @@
     <t>22.66</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 20,</t>
+    <t>Nov 20, 2020</t>
   </si>
   <si>
     <t>23.43</t>
@@ -731,7 +737,7 @@
     <t>23.70</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 19,</t>
+    <t>Nov 19, 2020</t>
   </si>
   <si>
     <t>23.62</t>
@@ -743,7 +749,7 @@
     <t>23.11</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 18,</t>
+    <t>Nov 18, 2020</t>
   </si>
   <si>
     <t>23.92</t>
@@ -752,7 +758,7 @@
     <t>23.84</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 17,</t>
+    <t>Nov 17, 2020</t>
   </si>
   <si>
     <t>22.84</t>
@@ -767,10 +773,10 @@
     <t>22.71</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 16,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nov 13,</t>
+    <t>Nov 16, 2020</t>
+  </si>
+  <si>
+    <t>Nov 13, 2020</t>
   </si>
   <si>
     <t>24.94</t>
@@ -785,7 +791,7 @@
     <t>23.10</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 12,</t>
+    <t>Nov 12, 2020</t>
   </si>
   <si>
     <t>24.39</t>
@@ -797,7 +803,7 @@
     <t>25.35</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 11,</t>
+    <t>Nov 11, 2020</t>
   </si>
   <si>
     <t>25.01</t>
@@ -812,7 +818,7 @@
     <t>23.45</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 10,</t>
+    <t>Nov 10, 2020</t>
   </si>
   <si>
     <t>25.36</t>
@@ -821,7 +827,7 @@
     <t>24.35</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 09,</t>
+    <t>Nov 09, 2020</t>
   </si>
   <si>
     <t>25.82</t>
@@ -830,7 +836,7 @@
     <t>25.75</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 06,</t>
+    <t>Nov 06, 2020</t>
   </si>
   <si>
     <t>27.87</t>
@@ -845,7 +851,7 @@
     <t>24.86</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 05,</t>
+    <t>Nov 05, 2020</t>
   </si>
   <si>
     <t>27.56</t>
@@ -860,7 +866,7 @@
     <t>27.58</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 04,</t>
+    <t>Nov 04, 2020</t>
   </si>
   <si>
     <t>36.79</t>
@@ -875,7 +881,7 @@
     <t>29.57</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 03,</t>
+    <t>Nov 03, 2020</t>
   </si>
   <si>
     <t>36.44</t>
@@ -887,7 +893,7 @@
     <t>35.55</t>
   </si>
   <si>
-    <t xml:space="preserve"> Nov 02,</t>
+    <t>Nov 02, 2020</t>
   </si>
   <si>
     <t>38.57</t>
@@ -902,7 +908,7 @@
     <t>37.13</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 30,</t>
+    <t>Oct 30, 2020</t>
   </si>
   <si>
     <t>40.81</t>
@@ -917,7 +923,7 @@
     <t>38.02</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 29,</t>
+    <t>Oct 29, 2020</t>
   </si>
   <si>
     <t>38.80</t>
@@ -932,7 +938,7 @@
     <t>37.59</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 28,</t>
+    <t>Oct 28, 2020</t>
   </si>
   <si>
     <t>34.69</t>
@@ -947,7 +953,7 @@
     <t>40.28</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 27,</t>
+    <t>Oct 27, 2020</t>
   </si>
   <si>
     <t>32.04</t>
@@ -962,7 +968,7 @@
     <t>33.35</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 26,</t>
+    <t>Oct 26, 2020</t>
   </si>
   <si>
     <t>29.38</t>
@@ -977,7 +983,7 @@
     <t>32.46</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 23,</t>
+    <t>Oct 23, 2020</t>
   </si>
   <si>
     <t>28.47</t>
@@ -992,7 +998,7 @@
     <t>27.55</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 22,</t>
+    <t>Oct 22, 2020</t>
   </si>
   <si>
     <t>30.10</t>
@@ -1007,7 +1013,7 @@
     <t>28.11</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 21,</t>
+    <t>Oct 21, 2020</t>
   </si>
   <si>
     <t>29.12</t>
@@ -1022,7 +1028,7 @@
     <t>28.65</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 20,</t>
+    <t>Oct 20, 2020</t>
   </si>
   <si>
     <t>28.81</t>
@@ -1037,7 +1043,7 @@
     <t>29.35</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 19,</t>
+    <t>Oct 19, 2020</t>
   </si>
   <si>
     <t>27.36</t>
@@ -1052,7 +1058,7 @@
     <t>29.18</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 16,</t>
+    <t>Oct 16, 2020</t>
   </si>
   <si>
     <t>27.16</t>
@@ -1067,7 +1073,7 @@
     <t>27.41</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 15,</t>
+    <t>Oct 15, 2020</t>
   </si>
   <si>
     <t>27.10</t>
@@ -1079,7 +1085,7 @@
     <t>26.82</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 14,</t>
+    <t>Oct 14, 2020</t>
   </si>
   <si>
     <t>25.72</t>
@@ -1094,7 +1100,7 @@
     <t>26.40</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 13,</t>
+    <t>Oct 13, 2020</t>
   </si>
   <si>
     <t>25.67</t>
@@ -1106,7 +1112,7 @@
     <t>26.07</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 12,</t>
+    <t>Oct 12, 2020</t>
   </si>
   <si>
     <t>25.65</t>
@@ -1115,7 +1121,7 @@
     <t>24.14</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 09,</t>
+    <t>Oct 09, 2020</t>
   </si>
   <si>
     <t>26.20</t>
@@ -1130,7 +1136,7 @@
     <t>25.00</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 08,</t>
+    <t>Oct 08, 2020</t>
   </si>
   <si>
     <t>27.65</t>
@@ -1145,7 +1151,7 @@
     <t>26.36</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 07,</t>
+    <t>Oct 07, 2020</t>
   </si>
   <si>
     <t>29.26</t>
@@ -1160,7 +1166,7 @@
     <t>28.06</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 06,</t>
+    <t>Oct 06, 2020</t>
   </si>
   <si>
     <t>28.05</t>
@@ -1175,7 +1181,7 @@
     <t>29.48</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 05,</t>
+    <t>Oct 05, 2020</t>
   </si>
   <si>
     <t>29.52</t>
@@ -1184,7 +1190,7 @@
     <t>27.96</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 02,</t>
+    <t>Oct 02, 2020</t>
   </si>
   <si>
     <t>28.87</t>
@@ -1196,7 +1202,7 @@
     <t>27.63</t>
   </si>
   <si>
-    <t xml:space="preserve"> Oct 01,</t>
+    <t>Oct 01, 2020</t>
   </si>
   <si>
     <t>25.78</t>
@@ -1211,7 +1217,7 @@
     <t>26.70</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sep 30,</t>
+    <t>Sep 30, 2020</t>
   </si>
   <si>
     <t>26.69</t>
@@ -1226,7 +1232,7 @@
     <t>26.37</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sep 29,</t>
+    <t>Sep 29, 2020</t>
   </si>
   <si>
     <t>26.81</t>
@@ -1241,7 +1247,7 @@
     <t>26.27</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sep 28,</t>
+    <t>Sep 28, 2020</t>
   </si>
   <si>
     <t>27.15</t>
@@ -1253,7 +1259,7 @@
     <t>24.90</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sep 25,</t>
+    <t>Sep 25, 2020</t>
   </si>
   <si>
     <t>28.17</t>
@@ -1268,7 +1274,7 @@
     <t>26.38</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sep 24,</t>
+    <t>Sep 24, 2020</t>
   </si>
   <si>
     <t>29.54</t>
@@ -1280,7 +1286,7 @@
     <t>28.51</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sep 23,</t>
+    <t>Sep 23, 2020</t>
   </si>
   <si>
     <t>27.02</t>
@@ -1295,7 +1301,7 @@
     <t>28.58</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sep 22,</t>
+    <t>Sep 22, 2020</t>
   </si>
   <si>
     <t>28.61</t>
@@ -1310,7 +1316,7 @@
     <t>26.86</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sep 21,</t>
+    <t>Sep 21, 2020</t>
   </si>
   <si>
     <t>28.04</t>
@@ -1322,7 +1328,7 @@
     <t>27.78</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sep 18,</t>
+    <t>Sep 18, 2020</t>
   </si>
   <si>
     <t>26.65</t>
@@ -1337,7 +1343,7 @@
     <t>25.83</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sep 17,</t>
+    <t>Sep 17, 2020</t>
   </si>
   <si>
     <t>28.22</t>
@@ -1352,28 +1358,13 @@
     <t>26.46</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sep 16,</t>
+    <t>Sep 16, 2020</t>
   </si>
   <si>
     <t>26.59</t>
   </si>
   <si>
     <t>24.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sep 15,</t>
-  </si>
-  <si>
-    <t>25.92</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>24.92</t>
-  </si>
-  <si>
-    <t>25.59</t>
   </si>
 </sst>
 </file>
@@ -1509,10 +1500,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -1526,7 +1517,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1549,19 +1540,19 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>12</v>
@@ -1569,10 +1560,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -1584,7 +1575,7 @@
         <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -1592,10 +1583,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -1607,7 +1598,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1615,10 +1606,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
@@ -1630,7 +1621,7 @@
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -1638,10 +1629,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
@@ -1653,7 +1644,7 @@
         <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
@@ -1664,19 +1655,19 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
         <v>48</v>
       </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1684,10 +1675,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>52</v>
@@ -1699,7 +1690,7 @@
         <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -1707,10 +1698,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
         <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
@@ -1722,7 +1713,7 @@
         <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -1730,10 +1721,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
@@ -1745,7 +1736,7 @@
         <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
         <v>12</v>
@@ -1753,10 +1744,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
         <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
@@ -1768,7 +1759,7 @@
         <v>69</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
@@ -1776,10 +1767,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
         <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
@@ -1791,7 +1782,7 @@
         <v>74</v>
       </c>
       <c r="F15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -1799,10 +1790,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
         <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
@@ -1814,7 +1805,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
         <v>12</v>
@@ -1822,19 +1813,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="B17" t="s">
-        <v>14</v>
-      </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s">
         <v>84</v>
@@ -1848,7 +1839,7 @@
         <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
         <v>86</v>
@@ -1860,7 +1851,7 @@
         <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
         <v>12</v>
@@ -1868,10 +1859,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
         <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
@@ -1883,7 +1874,7 @@
         <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -1891,10 +1882,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
         <v>95</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>96</v>
@@ -1906,7 +1897,7 @@
         <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" t="s">
         <v>12</v>
@@ -1914,10 +1905,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
         <v>100</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>101</v>
@@ -1929,7 +1920,7 @@
         <v>103</v>
       </c>
       <c r="F21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G21" t="s">
         <v>12</v>
@@ -1937,19 +1928,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
         <v>105</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
         <v>108</v>
@@ -1963,10 +1954,10 @@
         <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
         <v>111</v>
@@ -1975,7 +1966,7 @@
         <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G23" t="s">
         <v>12</v>
@@ -1983,10 +1974,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
         <v>114</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>115</v>
@@ -1998,7 +1989,7 @@
         <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G24" t="s">
         <v>12</v>
@@ -2006,10 +1997,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" t="s">
         <v>119</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>120</v>
@@ -2021,7 +2012,7 @@
         <v>122</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
         <v>12</v>
@@ -2029,22 +2020,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" t="s">
         <v>124</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>126</v>
-      </c>
-      <c r="D26" t="s">
-        <v>84</v>
       </c>
       <c r="E26" t="s">
         <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G26" t="s">
         <v>12</v>
@@ -2052,22 +2043,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" t="s">
         <v>129</v>
       </c>
-      <c r="B27" t="s">
-        <v>125</v>
-      </c>
       <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
         <v>130</v>
       </c>
-      <c r="D27" t="s">
-        <v>131</v>
-      </c>
-      <c r="E27" t="s">
-        <v>132</v>
-      </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2075,22 +2066,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" t="s">
         <v>134</v>
       </c>
-      <c r="B28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>135</v>
       </c>
-      <c r="D28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" t="s">
-        <v>137</v>
-      </c>
       <c r="F28" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="G28" t="s">
         <v>12</v>
@@ -2098,22 +2089,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
         <v>138</v>
       </c>
-      <c r="B29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>139</v>
       </c>
-      <c r="D29" t="s">
-        <v>140</v>
-      </c>
       <c r="E29" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2121,22 +2112,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" t="s">
         <v>143</v>
       </c>
-      <c r="B30" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
         <v>144</v>
       </c>
-      <c r="D30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" t="s">
-        <v>145</v>
-      </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G30" t="s">
         <v>12</v>
@@ -2144,22 +2135,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
         <v>147</v>
       </c>
-      <c r="B31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>148</v>
       </c>
-      <c r="E31" t="s">
-        <v>149</v>
-      </c>
       <c r="F31" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2167,22 +2158,22 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" t="s">
         <v>150</v>
       </c>
-      <c r="B32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>151</v>
       </c>
-      <c r="D32" t="s">
-        <v>26</v>
-      </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
@@ -2190,22 +2181,22 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
         <v>154</v>
       </c>
-      <c r="B33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="E33" t="s">
         <v>155</v>
       </c>
-      <c r="D33" t="s">
-        <v>156</v>
-      </c>
-      <c r="E33" t="s">
-        <v>153</v>
-      </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G33" t="s">
         <v>12</v>
@@ -2213,22 +2204,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C34" t="s">
         <v>158</v>
       </c>
-      <c r="B34" t="s">
-        <v>125</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" t="s">
         <v>159</v>
       </c>
-      <c r="D34" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" t="s">
-        <v>161</v>
-      </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G34" t="s">
         <v>12</v>
@@ -2236,22 +2227,22 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" t="s">
         <v>162</v>
       </c>
-      <c r="B35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>163</v>
       </c>
-      <c r="D35" t="s">
-        <v>164</v>
-      </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F35" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G35" t="s">
         <v>12</v>
@@ -2259,22 +2250,22 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" t="s">
         <v>167</v>
       </c>
-      <c r="B36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>168</v>
       </c>
-      <c r="D36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" t="s">
-        <v>169</v>
-      </c>
       <c r="F36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -2282,22 +2273,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" t="s">
         <v>171</v>
       </c>
-      <c r="B37" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>172</v>
       </c>
-      <c r="D37" t="s">
-        <v>173</v>
-      </c>
-      <c r="E37" t="s">
-        <v>174</v>
-      </c>
       <c r="F37" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G37" t="s">
         <v>12</v>
@@ -2305,22 +2296,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" t="s">
         <v>176</v>
       </c>
-      <c r="B38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>177</v>
       </c>
-      <c r="D38" t="s">
-        <v>178</v>
-      </c>
-      <c r="E38" t="s">
-        <v>179</v>
-      </c>
       <c r="F38" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
@@ -2328,22 +2319,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" t="s">
         <v>181</v>
       </c>
-      <c r="B39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>182</v>
       </c>
-      <c r="D39" t="s">
-        <v>183</v>
-      </c>
-      <c r="E39" t="s">
-        <v>184</v>
-      </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
@@ -2351,22 +2342,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" t="s">
         <v>185</v>
-      </c>
-      <c r="B40" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" t="s">
-        <v>140</v>
       </c>
       <c r="D40" t="s">
         <v>186</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -2374,22 +2365,22 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" t="s">
         <v>188</v>
       </c>
-      <c r="B41" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" t="s">
         <v>189</v>
       </c>
-      <c r="D41" t="s">
-        <v>190</v>
-      </c>
-      <c r="E41" t="s">
-        <v>191</v>
-      </c>
       <c r="F41" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="G41" t="s">
         <v>12</v>
@@ -2397,22 +2388,22 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" t="s">
         <v>192</v>
       </c>
-      <c r="B42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>193</v>
       </c>
-      <c r="D42" t="s">
-        <v>107</v>
-      </c>
       <c r="E42" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="F42" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="G42" t="s">
         <v>12</v>
@@ -2420,22 +2411,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" t="s">
         <v>196</v>
       </c>
-      <c r="B43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>197</v>
       </c>
-      <c r="D43" t="s">
-        <v>198</v>
-      </c>
-      <c r="E43" t="s">
-        <v>199</v>
-      </c>
       <c r="F43" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G43" t="s">
         <v>12</v>
@@ -2443,22 +2434,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" t="s">
         <v>201</v>
       </c>
-      <c r="B44" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>202</v>
       </c>
-      <c r="D44" t="s">
-        <v>141</v>
-      </c>
-      <c r="E44" t="s">
-        <v>203</v>
-      </c>
       <c r="F44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -2466,22 +2457,22 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" t="s">
         <v>205</v>
       </c>
-      <c r="B45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>206</v>
       </c>
-      <c r="E45" t="s">
-        <v>207</v>
-      </c>
       <c r="F45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G45" t="s">
         <v>12</v>
@@ -2489,22 +2480,22 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" t="s">
         <v>209</v>
       </c>
-      <c r="B46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>210</v>
       </c>
-      <c r="D46" t="s">
-        <v>211</v>
-      </c>
-      <c r="E46" t="s">
-        <v>212</v>
-      </c>
       <c r="F46" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -2512,22 +2503,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" t="s">
         <v>213</v>
       </c>
-      <c r="B47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>214</v>
       </c>
-      <c r="D47" t="s">
-        <v>215</v>
-      </c>
       <c r="E47" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="F47" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="G47" t="s">
         <v>12</v>
@@ -2535,22 +2526,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>215</v>
+      </c>
+      <c r="B48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D48" t="s">
         <v>218</v>
       </c>
-      <c r="B48" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>219</v>
       </c>
-      <c r="D48" t="s">
-        <v>175</v>
-      </c>
-      <c r="E48" t="s">
-        <v>220</v>
-      </c>
       <c r="F48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -2558,22 +2549,22 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" t="s">
         <v>222</v>
       </c>
-      <c r="B49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>223</v>
       </c>
-      <c r="E49" t="s">
-        <v>224</v>
-      </c>
       <c r="F49" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G49" t="s">
         <v>12</v>
@@ -2581,22 +2572,22 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>224</v>
+      </c>
+      <c r="B50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" t="s">
+        <v>225</v>
+      </c>
+      <c r="D50" t="s">
         <v>226</v>
-      </c>
-      <c r="B50" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" t="s">
-        <v>193</v>
-      </c>
-      <c r="D50" t="s">
-        <v>170</v>
       </c>
       <c r="E50" t="s">
         <v>227</v>
       </c>
       <c r="F50" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="G50" t="s">
         <v>12</v>
@@ -2607,19 +2598,19 @@
         <v>228</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="C51" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="D51" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="E51" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F51" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="G51" t="s">
         <v>12</v>
@@ -2627,22 +2618,22 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>230</v>
+      </c>
+      <c r="B52" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D52" t="s">
         <v>231</v>
       </c>
-      <c r="B52" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="E52" t="s">
         <v>232</v>
       </c>
-      <c r="D52" t="s">
-        <v>233</v>
-      </c>
-      <c r="E52" t="s">
-        <v>234</v>
-      </c>
       <c r="F52" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G52" t="s">
         <v>12</v>
@@ -2650,22 +2641,22 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" t="s">
+        <v>235</v>
+      </c>
+      <c r="D53" t="s">
         <v>236</v>
       </c>
-      <c r="B53" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>237</v>
       </c>
-      <c r="D53" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" t="s">
-        <v>149</v>
-      </c>
       <c r="F53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
@@ -2673,22 +2664,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" t="s">
         <v>239</v>
       </c>
-      <c r="B54" t="s">
-        <v>125</v>
-      </c>
       <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" t="s">
         <v>240</v>
       </c>
-      <c r="D54" t="s">
-        <v>241</v>
-      </c>
-      <c r="E54" t="s">
-        <v>122</v>
-      </c>
       <c r="F54" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G54" t="s">
         <v>12</v>
@@ -2696,22 +2687,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" t="s">
+        <v>242</v>
+      </c>
+      <c r="C55" t="s">
         <v>243</v>
       </c>
-      <c r="B55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" t="s">
-        <v>68</v>
-      </c>
       <c r="D55" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" t="s">
         <v>244</v>
       </c>
-      <c r="E55" t="s">
-        <v>83</v>
-      </c>
       <c r="F55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G55" t="s">
         <v>12</v>
@@ -2719,22 +2710,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>245</v>
+      </c>
+      <c r="B56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" t="s">
         <v>246</v>
       </c>
-      <c r="B56" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" t="s">
         <v>247</v>
       </c>
-      <c r="D56" t="s">
-        <v>248</v>
-      </c>
-      <c r="E56" t="s">
-        <v>249</v>
-      </c>
       <c r="F56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G56" t="s">
         <v>12</v>
@@ -2742,22 +2733,22 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" t="s">
+        <v>250</v>
+      </c>
+      <c r="D57" t="s">
         <v>251</v>
       </c>
-      <c r="B57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" t="s">
-        <v>232</v>
-      </c>
-      <c r="D57" t="s">
-        <v>99</v>
-      </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>252</v>
       </c>
       <c r="F57" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="G57" t="s">
         <v>12</v>
@@ -2765,22 +2756,22 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="C58" t="s">
-        <v>253</v>
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>254</v>
+        <v>105</v>
       </c>
       <c r="E58" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="F58" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="G58" t="s">
         <v>12</v>
@@ -2788,22 +2779,22 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>254</v>
+      </c>
+      <c r="B59" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" t="s">
+        <v>256</v>
+      </c>
+      <c r="D59" t="s">
         <v>257</v>
       </c>
-      <c r="B59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>258</v>
       </c>
-      <c r="D59" t="s">
-        <v>259</v>
-      </c>
-      <c r="E59" t="s">
-        <v>152</v>
-      </c>
       <c r="F59" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
@@ -2811,22 +2802,22 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>259</v>
+      </c>
+      <c r="B60" t="s">
+        <v>260</v>
+      </c>
+      <c r="C60" t="s">
         <v>261</v>
       </c>
-      <c r="B60" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" t="s">
         <v>262</v>
       </c>
-      <c r="D60" t="s">
-        <v>263</v>
-      </c>
-      <c r="E60" t="s">
-        <v>264</v>
-      </c>
       <c r="F60" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G60" t="s">
         <v>12</v>
@@ -2834,22 +2825,22 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
+        <v>263</v>
+      </c>
+      <c r="B61" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" t="s">
+        <v>265</v>
+      </c>
+      <c r="D61" t="s">
         <v>266</v>
       </c>
-      <c r="B61" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>267</v>
       </c>
-      <c r="D61" t="s">
-        <v>111</v>
-      </c>
-      <c r="E61" t="s">
-        <v>268</v>
-      </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>267</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
@@ -2857,22 +2848,22 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62" t="s">
         <v>269</v>
       </c>
-      <c r="B62" t="s">
-        <v>125</v>
-      </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
         <v>270</v>
       </c>
       <c r="E62" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="F62" t="s">
-        <v>271</v>
+        <v>121</v>
       </c>
       <c r="G62" t="s">
         <v>12</v>
@@ -2880,22 +2871,22 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>271</v>
+      </c>
+      <c r="B63" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" t="s">
         <v>272</v>
       </c>
-      <c r="B63" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" t="s">
         <v>273</v>
       </c>
-      <c r="D63" t="s">
-        <v>274</v>
-      </c>
-      <c r="E63" t="s">
-        <v>275</v>
-      </c>
       <c r="F63" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
@@ -2903,22 +2894,22 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
+        <v>274</v>
+      </c>
+      <c r="B64" t="s">
+        <v>275</v>
+      </c>
+      <c r="C64" t="s">
+        <v>276</v>
+      </c>
+      <c r="D64" t="s">
         <v>277</v>
       </c>
-      <c r="B64" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="E64" t="s">
         <v>278</v>
       </c>
-      <c r="D64" t="s">
-        <v>279</v>
-      </c>
-      <c r="E64" t="s">
-        <v>280</v>
-      </c>
       <c r="F64" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G64" t="s">
         <v>12</v>
@@ -2926,22 +2917,22 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" t="s">
+        <v>280</v>
+      </c>
+      <c r="C65" t="s">
+        <v>281</v>
+      </c>
+      <c r="D65" t="s">
         <v>282</v>
       </c>
-      <c r="B65" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>283</v>
       </c>
-      <c r="D65" t="s">
-        <v>284</v>
-      </c>
-      <c r="E65" t="s">
-        <v>285</v>
-      </c>
       <c r="F65" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G65" t="s">
         <v>12</v>
@@ -2949,22 +2940,22 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>284</v>
+      </c>
+      <c r="B66" t="s">
+        <v>285</v>
+      </c>
+      <c r="C66" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66" t="s">
         <v>287</v>
       </c>
-      <c r="B66" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="E66" t="s">
         <v>288</v>
       </c>
-      <c r="D66" t="s">
+      <c r="F66" t="s">
         <v>288</v>
-      </c>
-      <c r="E66" t="s">
-        <v>289</v>
-      </c>
-      <c r="F66" t="s">
-        <v>290</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
@@ -2972,22 +2963,22 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>289</v>
+      </c>
+      <c r="B67" t="s">
+        <v>290</v>
+      </c>
+      <c r="C67" t="s">
+        <v>290</v>
+      </c>
+      <c r="D67" t="s">
         <v>291</v>
       </c>
-      <c r="B67" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
         <v>292</v>
       </c>
-      <c r="D67" t="s">
-        <v>293</v>
-      </c>
-      <c r="E67" t="s">
-        <v>294</v>
-      </c>
       <c r="F67" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G67" t="s">
         <v>12</v>
@@ -2995,22 +2986,22 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>293</v>
+      </c>
+      <c r="B68" t="s">
+        <v>294</v>
+      </c>
+      <c r="C68" t="s">
+        <v>295</v>
+      </c>
+      <c r="D68" t="s">
         <v>296</v>
       </c>
-      <c r="B68" t="s">
-        <v>125</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
         <v>297</v>
       </c>
-      <c r="D68" t="s">
-        <v>298</v>
-      </c>
-      <c r="E68" t="s">
-        <v>299</v>
-      </c>
       <c r="F68" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G68" t="s">
         <v>12</v>
@@ -3018,22 +3009,22 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>298</v>
+      </c>
+      <c r="B69" t="s">
+        <v>299</v>
+      </c>
+      <c r="C69" t="s">
+        <v>300</v>
+      </c>
+      <c r="D69" t="s">
         <v>301</v>
       </c>
-      <c r="B69" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
         <v>302</v>
       </c>
-      <c r="D69" t="s">
-        <v>303</v>
-      </c>
-      <c r="E69" t="s">
-        <v>304</v>
-      </c>
       <c r="F69" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G69" t="s">
         <v>12</v>
@@ -3041,22 +3032,22 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>303</v>
+      </c>
+      <c r="B70" t="s">
+        <v>304</v>
+      </c>
+      <c r="C70" t="s">
+        <v>305</v>
+      </c>
+      <c r="D70" t="s">
         <v>306</v>
       </c>
-      <c r="B70" t="s">
-        <v>125</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="E70" t="s">
         <v>307</v>
       </c>
-      <c r="D70" t="s">
-        <v>308</v>
-      </c>
-      <c r="E70" t="s">
-        <v>309</v>
-      </c>
       <c r="F70" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
@@ -3064,22 +3055,22 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>308</v>
+      </c>
+      <c r="B71" t="s">
+        <v>309</v>
+      </c>
+      <c r="C71" t="s">
+        <v>310</v>
+      </c>
+      <c r="D71" t="s">
         <v>311</v>
       </c>
-      <c r="B71" t="s">
-        <v>125</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>312</v>
       </c>
-      <c r="D71" t="s">
-        <v>313</v>
-      </c>
-      <c r="E71" t="s">
-        <v>314</v>
-      </c>
       <c r="F71" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G71" t="s">
         <v>12</v>
@@ -3087,22 +3078,22 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>313</v>
+      </c>
+      <c r="B72" t="s">
+        <v>314</v>
+      </c>
+      <c r="C72" t="s">
+        <v>315</v>
+      </c>
+      <c r="D72" t="s">
         <v>316</v>
       </c>
-      <c r="B72" t="s">
-        <v>125</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="E72" t="s">
         <v>317</v>
       </c>
-      <c r="D72" t="s">
-        <v>318</v>
-      </c>
-      <c r="E72" t="s">
-        <v>319</v>
-      </c>
       <c r="F72" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G72" t="s">
         <v>12</v>
@@ -3110,22 +3101,22 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>318</v>
+      </c>
+      <c r="B73" t="s">
+        <v>319</v>
+      </c>
+      <c r="C73" t="s">
+        <v>320</v>
+      </c>
+      <c r="D73" t="s">
         <v>321</v>
       </c>
-      <c r="B73" t="s">
-        <v>125</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="E73" t="s">
         <v>322</v>
       </c>
-      <c r="D73" t="s">
-        <v>323</v>
-      </c>
-      <c r="E73" t="s">
-        <v>324</v>
-      </c>
       <c r="F73" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G73" t="s">
         <v>12</v>
@@ -3133,22 +3124,22 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74" t="s">
+        <v>324</v>
+      </c>
+      <c r="C74" t="s">
+        <v>325</v>
+      </c>
+      <c r="D74" t="s">
         <v>326</v>
       </c>
-      <c r="B74" t="s">
-        <v>125</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="E74" t="s">
         <v>327</v>
       </c>
-      <c r="D74" t="s">
-        <v>328</v>
-      </c>
-      <c r="E74" t="s">
-        <v>329</v>
-      </c>
       <c r="F74" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G74" t="s">
         <v>12</v>
@@ -3156,22 +3147,22 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>328</v>
+      </c>
+      <c r="B75" t="s">
+        <v>329</v>
+      </c>
+      <c r="C75" t="s">
+        <v>330</v>
+      </c>
+      <c r="D75" t="s">
         <v>331</v>
       </c>
-      <c r="B75" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="E75" t="s">
         <v>332</v>
       </c>
-      <c r="D75" t="s">
-        <v>333</v>
-      </c>
-      <c r="E75" t="s">
-        <v>334</v>
-      </c>
       <c r="F75" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
@@ -3179,22 +3170,22 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>333</v>
+      </c>
+      <c r="B76" t="s">
+        <v>334</v>
+      </c>
+      <c r="C76" t="s">
+        <v>335</v>
+      </c>
+      <c r="D76" t="s">
         <v>336</v>
       </c>
-      <c r="B76" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
         <v>337</v>
       </c>
-      <c r="D76" t="s">
-        <v>338</v>
-      </c>
-      <c r="E76" t="s">
-        <v>339</v>
-      </c>
       <c r="F76" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G76" t="s">
         <v>12</v>
@@ -3202,22 +3193,22 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>338</v>
+      </c>
+      <c r="B77" t="s">
+        <v>339</v>
+      </c>
+      <c r="C77" t="s">
+        <v>340</v>
+      </c>
+      <c r="D77" t="s">
         <v>341</v>
       </c>
-      <c r="B77" t="s">
-        <v>125</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="E77" t="s">
         <v>342</v>
       </c>
-      <c r="D77" t="s">
-        <v>343</v>
-      </c>
-      <c r="E77" t="s">
-        <v>344</v>
-      </c>
       <c r="F77" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G77" t="s">
         <v>12</v>
@@ -3225,22 +3216,22 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" t="s">
+        <v>344</v>
+      </c>
+      <c r="C78" t="s">
+        <v>345</v>
+      </c>
+      <c r="D78" t="s">
         <v>346</v>
       </c>
-      <c r="B78" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="E78" t="s">
         <v>347</v>
       </c>
-      <c r="D78" t="s">
-        <v>348</v>
-      </c>
-      <c r="E78" t="s">
-        <v>349</v>
-      </c>
       <c r="F78" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G78" t="s">
         <v>12</v>
@@ -3248,22 +3239,22 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>348</v>
+      </c>
+      <c r="B79" t="s">
+        <v>349</v>
+      </c>
+      <c r="C79" t="s">
+        <v>350</v>
+      </c>
+      <c r="D79" t="s">
         <v>351</v>
       </c>
-      <c r="B79" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
         <v>352</v>
       </c>
-      <c r="D79" t="s">
-        <v>353</v>
-      </c>
-      <c r="E79" t="s">
-        <v>354</v>
-      </c>
       <c r="F79" t="s">
-        <v>123</v>
+        <v>352</v>
       </c>
       <c r="G79" t="s">
         <v>12</v>
@@ -3271,22 +3262,22 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
+        <v>353</v>
+      </c>
+      <c r="B80" t="s">
+        <v>354</v>
+      </c>
+      <c r="C80" t="s">
         <v>355</v>
       </c>
-      <c r="B80" t="s">
-        <v>125</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>356</v>
       </c>
-      <c r="D80" t="s">
-        <v>357</v>
-      </c>
       <c r="E80" t="s">
-        <v>358</v>
+        <v>127</v>
       </c>
       <c r="F80" t="s">
-        <v>359</v>
+        <v>127</v>
       </c>
       <c r="G80" t="s">
         <v>12</v>
@@ -3294,22 +3285,22 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>357</v>
+      </c>
+      <c r="B81" t="s">
+        <v>358</v>
+      </c>
+      <c r="C81" t="s">
+        <v>359</v>
+      </c>
+      <c r="D81" t="s">
         <v>360</v>
       </c>
-      <c r="B81" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="E81" t="s">
         <v>361</v>
       </c>
-      <c r="D81" t="s">
-        <v>362</v>
-      </c>
-      <c r="E81" t="s">
-        <v>157</v>
-      </c>
       <c r="F81" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G81" t="s">
         <v>12</v>
@@ -3317,22 +3308,22 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>362</v>
+      </c>
+      <c r="B82" t="s">
+        <v>363</v>
+      </c>
+      <c r="C82" t="s">
         <v>364</v>
       </c>
-      <c r="B82" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
+        <v>159</v>
+      </c>
+      <c r="E82" t="s">
         <v>365</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>365</v>
-      </c>
-      <c r="E82" t="s">
-        <v>366</v>
-      </c>
-      <c r="F82" t="s">
-        <v>113</v>
       </c>
       <c r="G82" t="s">
         <v>12</v>
@@ -3340,22 +3331,22 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>366</v>
+      </c>
+      <c r="B83" t="s">
         <v>367</v>
       </c>
-      <c r="B83" t="s">
-        <v>125</v>
-      </c>
       <c r="C83" t="s">
+        <v>367</v>
+      </c>
+      <c r="D83" t="s">
         <v>368</v>
       </c>
-      <c r="D83" t="s">
-        <v>369</v>
-      </c>
       <c r="E83" t="s">
-        <v>370</v>
+        <v>117</v>
       </c>
       <c r="F83" t="s">
-        <v>371</v>
+        <v>117</v>
       </c>
       <c r="G83" t="s">
         <v>12</v>
@@ -3363,22 +3354,22 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>369</v>
+      </c>
+      <c r="B84" t="s">
+        <v>370</v>
+      </c>
+      <c r="C84" t="s">
+        <v>371</v>
+      </c>
+      <c r="D84" t="s">
         <v>372</v>
       </c>
-      <c r="B84" t="s">
-        <v>125</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="E84" t="s">
         <v>373</v>
       </c>
-      <c r="D84" t="s">
-        <v>374</v>
-      </c>
-      <c r="E84" t="s">
-        <v>375</v>
-      </c>
       <c r="F84" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G84" t="s">
         <v>12</v>
@@ -3386,22 +3377,22 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>374</v>
+      </c>
+      <c r="B85" t="s">
+        <v>375</v>
+      </c>
+      <c r="C85" t="s">
+        <v>376</v>
+      </c>
+      <c r="D85" t="s">
         <v>377</v>
       </c>
-      <c r="B85" t="s">
-        <v>125</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="E85" t="s">
         <v>378</v>
       </c>
-      <c r="D85" t="s">
-        <v>379</v>
-      </c>
-      <c r="E85" t="s">
-        <v>380</v>
-      </c>
       <c r="F85" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G85" t="s">
         <v>12</v>
@@ -3409,22 +3400,22 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>379</v>
+      </c>
+      <c r="B86" t="s">
+        <v>380</v>
+      </c>
+      <c r="C86" t="s">
+        <v>381</v>
+      </c>
+      <c r="D86" t="s">
         <v>382</v>
       </c>
-      <c r="B86" t="s">
-        <v>125</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="E86" t="s">
         <v>383</v>
       </c>
-      <c r="D86" t="s">
-        <v>384</v>
-      </c>
-      <c r="E86" t="s">
-        <v>385</v>
-      </c>
       <c r="F86" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G86" t="s">
         <v>12</v>
@@ -3432,22 +3423,22 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>384</v>
+      </c>
+      <c r="B87" t="s">
+        <v>385</v>
+      </c>
+      <c r="C87" t="s">
+        <v>386</v>
+      </c>
+      <c r="D87" t="s">
         <v>387</v>
       </c>
-      <c r="B87" t="s">
-        <v>125</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="E87" t="s">
         <v>388</v>
       </c>
-      <c r="D87" t="s">
-        <v>343</v>
-      </c>
-      <c r="E87" t="s">
-        <v>259</v>
-      </c>
       <c r="F87" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G87" t="s">
         <v>12</v>
@@ -3455,22 +3446,22 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>389</v>
+      </c>
+      <c r="B88" t="s">
         <v>390</v>
       </c>
-      <c r="B88" t="s">
-        <v>125</v>
-      </c>
       <c r="C88" t="s">
+        <v>345</v>
+      </c>
+      <c r="D88" t="s">
+        <v>261</v>
+      </c>
+      <c r="E88" t="s">
         <v>391</v>
       </c>
-      <c r="D88" t="s">
-        <v>392</v>
-      </c>
-      <c r="E88" t="s">
-        <v>362</v>
-      </c>
       <c r="F88" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G88" t="s">
         <v>12</v>
@@ -3478,22 +3469,22 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>392</v>
+      </c>
+      <c r="B89" t="s">
+        <v>393</v>
+      </c>
+      <c r="C89" t="s">
         <v>394</v>
       </c>
-      <c r="B89" t="s">
-        <v>125</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
+        <v>364</v>
+      </c>
+      <c r="E89" t="s">
         <v>395</v>
       </c>
-      <c r="D89" t="s">
-        <v>396</v>
-      </c>
-      <c r="E89" t="s">
-        <v>397</v>
-      </c>
       <c r="F89" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G89" t="s">
         <v>12</v>
@@ -3501,22 +3492,22 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>396</v>
+      </c>
+      <c r="B90" t="s">
+        <v>397</v>
+      </c>
+      <c r="C90" t="s">
+        <v>398</v>
+      </c>
+      <c r="D90" t="s">
         <v>399</v>
       </c>
-      <c r="B90" t="s">
-        <v>125</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
         <v>400</v>
       </c>
-      <c r="D90" t="s">
-        <v>401</v>
-      </c>
-      <c r="E90" t="s">
-        <v>402</v>
-      </c>
       <c r="F90" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G90" t="s">
         <v>12</v>
@@ -3524,22 +3515,22 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>401</v>
+      </c>
+      <c r="B91" t="s">
+        <v>402</v>
+      </c>
+      <c r="C91" t="s">
+        <v>403</v>
+      </c>
+      <c r="D91" t="s">
         <v>404</v>
       </c>
-      <c r="B91" t="s">
-        <v>125</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>405</v>
       </c>
-      <c r="D91" t="s">
-        <v>406</v>
-      </c>
-      <c r="E91" t="s">
-        <v>407</v>
-      </c>
       <c r="F91" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G91" t="s">
         <v>12</v>
@@ -3547,22 +3538,22 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>406</v>
+      </c>
+      <c r="B92" t="s">
+        <v>407</v>
+      </c>
+      <c r="C92" t="s">
+        <v>408</v>
+      </c>
+      <c r="D92" t="s">
         <v>409</v>
       </c>
-      <c r="B92" t="s">
-        <v>125</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>410</v>
       </c>
-      <c r="D92" t="s">
-        <v>411</v>
-      </c>
-      <c r="E92" t="s">
-        <v>412</v>
-      </c>
       <c r="F92" t="s">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="G92" t="s">
         <v>12</v>
@@ -3570,22 +3561,22 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>411</v>
+      </c>
+      <c r="B93" t="s">
+        <v>412</v>
+      </c>
+      <c r="C93" t="s">
         <v>413</v>
       </c>
-      <c r="B93" t="s">
-        <v>125</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>414</v>
       </c>
-      <c r="D93" t="s">
-        <v>415</v>
-      </c>
       <c r="E93" t="s">
-        <v>416</v>
+        <v>351</v>
       </c>
       <c r="F93" t="s">
-        <v>417</v>
+        <v>351</v>
       </c>
       <c r="G93" t="s">
         <v>12</v>
@@ -3593,22 +3584,22 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>415</v>
+      </c>
+      <c r="B94" t="s">
+        <v>416</v>
+      </c>
+      <c r="C94" t="s">
+        <v>417</v>
+      </c>
+      <c r="D94" t="s">
         <v>418</v>
       </c>
-      <c r="B94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="E94" t="s">
         <v>419</v>
       </c>
-      <c r="D94" t="s">
-        <v>420</v>
-      </c>
-      <c r="E94" t="s">
-        <v>380</v>
-      </c>
       <c r="F94" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G94" t="s">
         <v>12</v>
@@ -3616,22 +3607,22 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>420</v>
+      </c>
+      <c r="B95" t="s">
+        <v>421</v>
+      </c>
+      <c r="C95" t="s">
         <v>422</v>
       </c>
-      <c r="B95" t="s">
-        <v>125</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>382</v>
+      </c>
+      <c r="E95" t="s">
         <v>423</v>
       </c>
-      <c r="D95" t="s">
-        <v>424</v>
-      </c>
-      <c r="E95" t="s">
-        <v>425</v>
-      </c>
       <c r="F95" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G95" t="s">
         <v>12</v>
@@ -3639,22 +3630,22 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>424</v>
+      </c>
+      <c r="B96" t="s">
+        <v>425</v>
+      </c>
+      <c r="C96" t="s">
+        <v>426</v>
+      </c>
+      <c r="D96" t="s">
         <v>427</v>
       </c>
-      <c r="B96" t="s">
-        <v>125</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="E96" t="s">
         <v>428</v>
       </c>
-      <c r="D96" t="s">
-        <v>429</v>
-      </c>
-      <c r="E96" t="s">
-        <v>430</v>
-      </c>
       <c r="F96" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G96" t="s">
         <v>12</v>
@@ -3662,22 +3653,22 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>429</v>
+      </c>
+      <c r="B97" t="s">
+        <v>430</v>
+      </c>
+      <c r="C97" t="s">
+        <v>431</v>
+      </c>
+      <c r="D97" t="s">
         <v>432</v>
       </c>
-      <c r="B97" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
         <v>433</v>
       </c>
-      <c r="D97" t="s">
-        <v>434</v>
-      </c>
-      <c r="E97" t="s">
-        <v>40</v>
-      </c>
       <c r="F97" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
@@ -3685,22 +3676,22 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
+        <v>434</v>
+      </c>
+      <c r="B98" t="s">
+        <v>435</v>
+      </c>
+      <c r="C98" t="s">
         <v>436</v>
       </c>
-      <c r="B98" t="s">
-        <v>125</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" t="s">
         <v>437</v>
       </c>
-      <c r="D98" t="s">
-        <v>438</v>
-      </c>
-      <c r="E98" t="s">
-        <v>439</v>
-      </c>
       <c r="F98" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G98" t="s">
         <v>12</v>
@@ -3708,22 +3699,22 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>438</v>
+      </c>
+      <c r="B99" t="s">
+        <v>439</v>
+      </c>
+      <c r="C99" t="s">
+        <v>440</v>
+      </c>
+      <c r="D99" t="s">
         <v>441</v>
       </c>
-      <c r="B99" t="s">
-        <v>125</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="E99" t="s">
         <v>442</v>
       </c>
-      <c r="D99" t="s">
-        <v>443</v>
-      </c>
-      <c r="E99" t="s">
-        <v>444</v>
-      </c>
       <c r="F99" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>
@@ -3731,22 +3722,22 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>443</v>
+      </c>
+      <c r="B100" t="s">
+        <v>444</v>
+      </c>
+      <c r="C100" t="s">
+        <v>445</v>
+      </c>
+      <c r="D100" t="s">
         <v>446</v>
       </c>
-      <c r="B100" t="s">
-        <v>125</v>
-      </c>
-      <c r="C100" t="s">
-        <v>25</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>447</v>
       </c>
-      <c r="E100" t="s">
-        <v>448</v>
-      </c>
       <c r="F100" t="s">
-        <v>280</v>
+        <v>447</v>
       </c>
       <c r="G100" t="s">
         <v>12</v>
@@ -3754,22 +3745,22 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>448</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" t="s">
         <v>449</v>
       </c>
-      <c r="B101" t="s">
-        <v>125</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>450</v>
       </c>
-      <c r="D101" t="s">
-        <v>451</v>
-      </c>
       <c r="E101" t="s">
-        <v>452</v>
+        <v>282</v>
       </c>
       <c r="F101" t="s">
-        <v>453</v>
+        <v>282</v>
       </c>
       <c r="G101" t="s">
         <v>12</v>
